--- a/Code/Non-Linear-Regression_Hypertuned.xlsx
+++ b/Code/Non-Linear-Regression_Hypertuned.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hk/Documents/GitHub/CIND820/CIND820_Capstone Project/CIND820_CAPSTONE/Code/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912AAB5B-A6AC-DA4A-BAED-7CB773AC5315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="24020" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -31,7 +25,7 @@
     <t>best_params</t>
   </si>
   <si>
-    <t>cv_results</t>
+    <t>mean_test_score</t>
   </si>
   <si>
     <t>XGB</t>
@@ -58,119 +52,32 @@
     <t>{'model__n_estimators': 451, 'model__min_samples_split': 3, 'model__min_samples_leaf': 1, 'model__max_features': 'sqrt', 'model__max_depth': 71}</t>
   </si>
   <si>
-    <t>{'model__kernel': 'rbf', 'model__gamma': 'auto', 'model__C': 0.046415888336127795}</t>
+    <t>{'model__kernel': 'rbf', 'model__gamma': 'scale', 'model__C': 0.004534878508128582}</t>
   </si>
   <si>
     <t>{'model__weights': 'distance', 'model__p': 2, 'model__n_neighbors': 17, 'model__algorithm': 'kd_tree'}</t>
   </si>
   <si>
-    <t>{'mean_fit_time': array([0.77612286, 1.81605444, 1.18974395, 7.05446253, 5.08428969]), 'std_fit_time': array([0.01680451, 0.1128816 , 0.19760516, 0.14994613, 1.81296796]), 'mean_score_time': array([0.05024285, 0.09339457, 0.0569737 , 0.34418869, 0.27919436]), 'std_score_time': array([0.01864935, 0.01286047, 0.00934521, 0.04616773, 0.04513091]), 'param_model__subsample': masked_array(data=[0.8999999999999999, 0.8999999999999999, 0.7,
-                   0.8999999999999999, 0.5],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__reg_alpha': masked_array(data=[0.036783797718286326, 13.848863713938718,
-                   19.630406500402724, 17.47528400007683,
-                   0.11768119524349979],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__n_estimators': masked_array(data=[221, 792, 463, 1003, 643],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__max_depth': masked_array(data=[3, 6, 8, 7, 10],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__learning_rate': masked_array(data=[0.0011497569953977356, 0.0533669923120631,
-                   0.4328761281083057, 0.0023101297000831605, 0.001],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__gamma': masked_array(data=[4, 1, 3, 0, 1],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__colsample_bytree': masked_array(data=[0.8999999999999999, 0.5, 0.8999999999999999, 0.6,
-                   0.8999999999999999],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'params': [{'model__subsample': 0.8999999999999999, 'model__reg_alpha': 0.036783797718286326, 'model__n_estimators': 221, 'model__max_depth': 3, 'model__learning_rate': 0.0011497569953977356, 'model__gamma': 4, 'model__colsample_bytree': 0.8999999999999999}, {'model__subsample': 0.8999999999999999, 'model__reg_alpha': 13.848863713938718, 'model__n_estimators': 792, 'model__max_depth': 6, 'model__learning_rate': 0.0533669923120631, 'model__gamma': 1, 'model__colsample_bytree': 0.5}, {'model__subsample': 0.7, 'model__reg_alpha': 19.630406500402724, 'model__n_estimators': 463, 'model__max_depth': 8, 'model__learning_rate': 0.4328761281083057, 'model__gamma': 3, 'model__colsample_bytree': 0.8999999999999999}, {'model__subsample': 0.8999999999999999, 'model__reg_alpha': 17.47528400007683, 'model__n_estimators': 1003, 'model__max_depth': 7, 'model__learning_rate': 0.0023101297000831605, 'model__gamma': 0, 'model__colsample_bytree': 0.6}, {'model__subsample': 0.5, 'model__reg_alpha': 0.11768119524349979, 'model__n_estimators': 643, 'model__max_depth': 10, 'model__learning_rate': 0.001, 'model__gamma': 1, 'model__colsample_bytree': 0.8999999999999999}], 'split0_test_score': array([-0.41756745, -0.33654604, -0.34395621, -0.35233633, -0.37656   ]), 'split1_test_score': array([-0.42760193, -0.3417006 , -0.35318462, -0.36142901, -0.38614957]), 'split2_test_score': array([-0.41842841, -0.33751395, -0.349398  , -0.35422238, -0.37782335]), 'split3_test_score': array([-0.42404883, -0.3388772 , -0.34945269, -0.35772022, -0.38265004]), 'split4_test_score': array([-0.41672692, -0.33572142, -0.34700726, -0.35266306, -0.37497401]), 'mean_test_score': array([-0.42087471, -0.33807184, -0.34859975, -0.3556742 , -0.37963139]), 'std_test_score': array([0.00422983, 0.00209668, 0.00304907, 0.00345312, 0.00414711]), 'rank_test_score': array([5, 1, 2, 3, 4], dtype=int32)}</t>
-  </si>
-  <si>
-    <t>{'mean_fit_time': array([0.2114614 , 0.20934348, 0.22464371, 0.19751687, 0.16640177]), 'std_fit_time': array([0.00636868, 0.00920349, 0.01858599, 0.0114951 , 0.01196049]), 'mean_score_time': array([0.02975903, 0.03147678, 0.03312445, 0.03672037, 0.02411718]), 'std_score_time': array([0.00390458, 0.00689352, 0.00855497, 0.00580912, 0.00179012]), 'param_model__splitter': masked_array(data=['best', 'best', 'best', 'random', 'best'],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__min_samples_split': masked_array(data=[8, 9, 7, 5, 8],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__min_samples_leaf': masked_array(data=[9, 4, 3, 1, 2],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__max_depth': masked_array(data=[6, 8, 7, 7, 7],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__criterion': masked_array(data=['friedman_mse', 'poisson', 'poisson', 'poisson',
-                   'squared_error'],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'params': [{'model__splitter': 'best', 'model__min_samples_split': 8, 'model__min_samples_leaf': 9, 'model__max_depth': 6, 'model__criterion': 'friedman_mse'}, {'model__splitter': 'best', 'model__min_samples_split': 9, 'model__min_samples_leaf': 4, 'model__max_depth': 8, 'model__criterion': 'poisson'}, {'model__splitter': 'best', 'model__min_samples_split': 7, 'model__min_samples_leaf': 3, 'model__max_depth': 7, 'model__criterion': 'poisson'}, {'model__splitter': 'random', 'model__min_samples_split': 5, 'model__min_samples_leaf': 1, 'model__max_depth': 7, 'model__criterion': 'poisson'}, {'model__splitter': 'best', 'model__min_samples_split': 8, 'model__min_samples_leaf': 2, 'model__max_depth': 7, 'model__criterion': 'squared_error'}], 'split0_test_score': array([-0.36991737, -0.3632626 , -0.36406155, -0.36498386, -0.36585339]), 'split1_test_score': array([-0.37968097, -0.37383174, -0.37775913, -0.37612712, -0.37812794]), 'split2_test_score': array([-0.372907  , -0.3660213 , -0.36990758, -0.36997429, -0.3693562 ]), 'split3_test_score': array([-0.37819351, -0.37062496, -0.37250947, -0.37155202, -0.3738971 ]), 'split4_test_score': array([-0.36714454, -0.36294591, -0.36460582, -0.36522762, -0.36379838]), 'mean_test_score': array([-0.37356868, -0.3673373 , -0.36976871, -0.36957298, -0.3702066 ]), 'std_test_score': array([0.00477051, 0.0042569 , 0.00511087, 0.00417077, 0.00523653]), 'rank_test_score': array([5, 1, 3, 2, 4], dtype=int32)}</t>
-  </si>
-  <si>
-    <t>{'mean_fit_time': array([ 2.48304267,  7.84302325, 12.12726893, 16.19698787, 16.2808609 ]), 'std_fit_time': array([0.07750405, 0.07805165, 0.13690062, 0.31246182, 2.01060514]), 'mean_score_time': array([0.18085947, 0.49077215, 0.74054623, 0.69148755, 0.79512601]), 'std_score_time': array([0.03365689, 0.02438798, 0.01781443, 0.08991927, 0.1368172 ]), 'param_model__n_estimators': masked_array(data=[122, 319, 488, 734, 451],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__min_samples_split': masked_array(data=[4, 9, 9, 8, 3],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__min_samples_leaf': masked_array(data=[6, 2, 2, 9, 1],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__max_features': masked_array(data=['log2', 'log2', 'log2', 'sqrt', 'sqrt'],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__max_depth': masked_array(data=[103, 107, 45, 46, 71],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'params': [{'model__n_estimators': 122, 'model__min_samples_split': 4, 'model__min_samples_leaf': 6, 'model__max_features': 'log2', 'model__max_depth': 103}, {'model__n_estimators': 319, 'model__min_samples_split': 9, 'model__min_samples_leaf': 2, 'model__max_features': 'log2', 'model__max_depth': 107}, {'model__n_estimators': 488, 'model__min_samples_split': 9, 'model__min_samples_leaf': 2, 'model__max_features': 'log2', 'model__max_depth': 45}, {'model__n_estimators': 734, 'model__min_samples_split': 8, 'model__min_samples_leaf': 9, 'model__max_features': 'sqrt', 'model__max_depth': 46}, {'model__n_estimators': 451, 'model__min_samples_split': 3, 'model__min_samples_leaf': 1, 'model__max_features': 'sqrt', 'model__max_depth': 71}], 'split0_test_score': array([-0.33829206, -0.32862818, -0.32845653, -0.33736824, -0.31540783]), 'split1_test_score': array([-0.34491786, -0.33456779, -0.33460926, -0.34504508, -0.32303671]), 'split2_test_score': array([-0.340062  , -0.33049569, -0.33037812, -0.33958395, -0.31828302]), 'split3_test_score': array([-0.34199092, -0.33190922, -0.33162864, -0.34175239, -0.31843961]), 'split4_test_score': array([-0.33771356, -0.3275804 , -0.32735924, -0.33667601, -0.31465791]), 'mean_test_score': array([-0.34059528, -0.33063626, -0.33048636, -0.34008514, -0.31796501]), 'std_test_score': array([0.00262778, 0.00246851, 0.00253827, 0.00305403, 0.00295041]), 'rank_test_score': array([5, 3, 2, 4, 1], dtype=int32)}</t>
-  </si>
-  <si>
-    <t>{'mean_fit_time': array([38.1158824 , 51.95896668, 36.8162251 , 36.73821659, 31.37729816]), 'std_fit_time': array([0.62086161, 3.71260162, 0.82118295, 1.98652613, 6.68790484]), 'mean_score_time': array([24.73526049,  9.74779015, 22.23342457, 20.91160293,  5.37752504]), 'std_score_time': array([0.73535879, 0.39543143, 0.86178802, 2.59872961, 1.86661923]), 'param_model__kernel': masked_array(data=['rbf', 'sigmoid', 'rbf', 'rbf', 'sigmoid'],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__gamma': masked_array(data=['auto', 'scale', 'auto', 'scale', 'auto'],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__C': masked_array(data=[0.004037017258596553, 0.5336699231206307,
-                   0.046415888336127795, 0.004534878508128582,
-                   0.0025353644939701114],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'params': [{'model__kernel': 'rbf', 'model__gamma': 'auto', 'model__C': 0.004037017258596553}, {'model__kernel': 'sigmoid', 'model__gamma': 'scale', 'model__C': 0.5336699231206307}, {'model__kernel': 'rbf', 'model__gamma': 'auto', 'model__C': 0.046415888336127795}, {'model__kernel': 'rbf', 'model__gamma': 'scale', 'model__C': 0.004534878508128582}, {'model__kernel': 'sigmoid', 'model__gamma': 'auto', 'model__C': 0.0025353644939701114}], 'split0_test_score': array([ -0.37600918, -15.6761412 ,  -0.34167264,  -0.35119404,
-        -0.4007655 ]), 'split1_test_score': array([ -0.38372348, -15.23511197,  -0.34476077,  -0.35634527,
-        -0.4106575 ]), 'split2_test_score': array([ -0.37762322, -15.87799421,  -0.34165462,  -0.35214703,
-        -0.40284854]), 'split3_test_score': array([ -0.38130736, -16.03701178,  -0.34188366,  -0.3545871 ,
-        -0.40758213]), 'split4_test_score': array([ -0.37597693, -15.94570708,  -0.34112855,  -0.35068894,
-        -0.40084428]), 'mean_test_score': array([ -0.37892803, -15.75439325,  -0.34222005,  -0.35299248,
-        -0.40453959]), 'std_test_score': array([0.00308509, 0.2854918 , 0.00129454, 0.0021466 , 0.00393559]), 'rank_test_score': array([3, 5, 1, 2, 4], dtype=int32)}</t>
-  </si>
-  <si>
-    <t>{'mean_fit_time': array([0.09070287, 0.24389844, 0.77752061, 0.14083471, 0.1197638 ]), 'std_fit_time': array([0.01771084, 0.03278351, 0.07226267, 0.00938698, 0.01805428]), 'mean_score_time': array([91.23919568, 13.65729642, 92.58246198,  2.2962606 , 58.70258088]), 'std_score_time': array([ 2.80417325,  0.79326443, 15.17681999,  0.20378278,  8.08255674]), 'param_model__weights': masked_array(data=['uniform', 'distance', 'uniform', 'uniform',
-                   'distance'],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__p': masked_array(data=[4, 2, 4, 2, 4],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__n_neighbors': masked_array(data=[13, 17, 15, 14, 9],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'param_model__algorithm': masked_array(data=['auto', 'kd_tree', 'ball_tree', 'auto', 'auto'],
-             mask=[False, False, False, False, False],
-       fill_value='?',
-            dtype=object), 'params': [{'model__weights': 'uniform', 'model__p': 4, 'model__n_neighbors': 13, 'model__algorithm': 'auto'}, {'model__weights': 'distance', 'model__p': 2, 'model__n_neighbors': 17, 'model__algorithm': 'kd_tree'}, {'model__weights': 'uniform', 'model__p': 4, 'model__n_neighbors': 15, 'model__algorithm': 'ball_tree'}, {'model__weights': 'uniform', 'model__p': 2, 'model__n_neighbors': 14, 'model__algorithm': 'auto'}, {'model__weights': 'distance', 'model__p': 4, 'model__n_neighbors': 9, 'model__algorithm': 'auto'}], 'split0_test_score': array([-0.34241616, -0.32531653, -0.3424065 , -0.34176866, -0.33043528]), 'split1_test_score': array([-0.34914355, -0.33119493, -0.34821403, -0.34849977, -0.33790548]), 'split2_test_score': array([-0.34451801, -0.32449698, -0.34304646, -0.34369151, -0.33456178]), 'split3_test_score': array([-0.34851553, -0.3269956 , -0.34662548, -0.34698992, -0.33411051]), 'split4_test_score': array([-0.34589281, -0.32499603, -0.34489616, -0.34445761, -0.33189004]), 'mean_test_score': array([-0.34609721, -0.32660001, -0.34503773, -0.34508149, -0.33378062]), 'std_test_score': array([0.00249857, 0.00244592, 0.0021688 , 0.00239261, 0.00254948]), 'rank_test_score': array([5, 1, 3, 4, 2], dtype=int32)}</t>
+    <t>[-0.42207265 -0.32823761 -0.33398839 -0.34699708 -0.3740561 ]</t>
+  </si>
+  <si>
+    <t>[-0.3695032  -0.35898769 -0.36390188 -0.36516125 -0.36401557]</t>
+  </si>
+  <si>
+    <t>[-0.32121037 -0.29818173 -0.29812624 -0.3210631  -0.25125287]</t>
+  </si>
+  <si>
+    <t>[ -0.34870804 -78.33119948  -0.33404506  -0.33343586  -0.36487258]</t>
+  </si>
+  <si>
+    <t>[-0.32897775 -0.25017541 -0.32964439 -0.32925579 -0.25541308]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,21 +140,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,7 +184,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -319,7 +218,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -354,10 +252,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -530,21 +427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="191.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,12 +448,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.3380718413200407</v>
+        <v>-0.3282376132619274</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -572,12 +462,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.36733730266093961</v>
+        <v>-0.3589876942264046</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -586,12 +476,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.31796501447097392</v>
+        <v>-0.2512528714822816</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -600,12 +490,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.34222004789502519</v>
+        <v>-0.3334358584383813</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -614,12 +504,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.3266000122353126</v>
+        <v>-0.2501754084945931</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
